--- a/similarities/split_global/harmonic_similarity_timestamps_261.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#', 'C:7/A#']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'D:7']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:41.440000')]</t>
+          <t>('0:00:36.320000', '0:00:51.920000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:27.940000')]</t>
+          <t>('0:00:33.100000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb:min', 'Gb', 'Ab', 'Db']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.362743', '0:01:03.814807')]</t>
+          <t>('0:03:57.580000', '0:04:13.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.474000', '0:00:16.277000')]</t>
+          <t>('0:00:19.360000', '0:00:23.020000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=55.362743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=9.474']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:17.560000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:01:06.980000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:01:57.680000', '0:01:59.480000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:00:29.020000', '0:00:40.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['B:min', 'E:7/G#', 'A:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000'), ('0:00:35.460000', '0:00:38.200000')]</t>
+          <t>('0:00:38.620000', '0:00:44.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:36.300000', '0:00:43.280000')]</t>
+          <t>('0:00:38.580000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=36.3']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E/4', 'D/5']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A']]</t>
+          <t>['Eb:maj', 'Bb:7/3', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:34.232000', '0:00:41.784000')]</t>
+          <t>('0:00:10', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:16.305010')]</t>
+          <t>('0:00:42.588000', '0:00:46.723000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=10.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=42.588</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:17.640000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:23.420000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_73</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D', 'B:min', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:33.270000')]</t>
+          <t>('0:00:07.580000', '0:00:15.620000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:27', '0:00:56.920000')]</t>
+          <t>('0:00:06.949138', '0:00:11.546689')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=7.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-73#t=6.949138</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'A:min7', 'D:7', 'G']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.420000', '0:01:11.700000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:50.310000')]</t>
+          <t>('0:00:01.150000', '0:00:07.605000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5'], ['A/3', 'D', 'A']]</t>
+          <t>['G', 'C:min', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'D', 'A']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:53.016000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:54.639000', '0:00:59.554000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:33.814625', '0:00:37.738798'), ('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:12.080000', '0:00:24.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=12.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:16.760000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:07.700000', '0:00:19.980000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
